--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi.borriello2\Desktop\Tirocinio\Tirocinio_Mirri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi.borriello2\Desktop\Tirocinio\Tiny-MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E14715-BB37-484B-9419-C6E4487C5EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F618E52-EAFC-4C2D-99B7-9056EAD74AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4369CB72-3CB2-48AE-831B-B67D7B2D2361}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Data</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Fonti utilizzate</t>
+  </si>
+  <si>
+    <t>SetUp Jupyter e studio arduino</t>
+  </si>
+  <si>
+    <t>Studio del TinyML / Random For</t>
+  </si>
+  <si>
+    <t>Pdf prof / Youtube</t>
+  </si>
+  <si>
+    <t>Dispense Unibo / Youtube</t>
   </si>
 </sst>
 </file>
@@ -89,15 +101,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -111,13 +151,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{46220553-AC31-43EC-A4E9-DA82EE6C8576}" name="Tabella2" displayName="Tabella2" ref="B2:E19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{46220553-AC31-43EC-A4E9-DA82EE6C8576}" name="Tabella2" displayName="Tabella2" ref="B2:E19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="B2:E19" xr:uid="{46220553-AC31-43EC-A4E9-DA82EE6C8576}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1B096FAB-3866-401A-9AF0-3E9E6BC91087}" name="Data"/>
-    <tableColumn id="2" xr3:uid="{DAB87FCA-D670-4C72-AB2E-3B17BA037396}" name="Ore"/>
-    <tableColumn id="3" xr3:uid="{789F7B6F-7B08-42E9-8AE2-354812F8EF32}" name="Task"/>
-    <tableColumn id="4" xr3:uid="{25867127-5B90-4E64-876B-E1FF828811C7}" name="Fonti utilizzate"/>
+    <tableColumn id="1" xr3:uid="{1B096FAB-3866-401A-9AF0-3E9E6BC91087}" name="Data" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DAB87FCA-D670-4C72-AB2E-3B17BA037396}" name="Ore" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{789F7B6F-7B08-42E9-8AE2-354812F8EF32}" name="Task" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{25867127-5B90-4E64-876B-E1FF828811C7}" name="Fonti utilizzate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1F251-2E00-4C93-80E5-7B7C0B1560BE}">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,28 +471,151 @@
     <col min="2" max="2" width="13.81640625" customWidth="1"/>
     <col min="3" max="3" width="13.90625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="34.08984375" customWidth="1"/>
+    <col min="5" max="5" width="46.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="4">
+        <v>44596</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="4">
+        <v>44597</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
+        <v>44599</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi.borriello2\Desktop\Tirocinio\Tiny-MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F618E52-EAFC-4C2D-99B7-9056EAD74AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4E7B18-39D1-4EC1-B645-40D262B0F107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4369CB72-3CB2-48AE-831B-B67D7B2D2361}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Data</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Dispense Unibo / Youtube</t>
+  </si>
+  <si>
+    <t>Test sensori arduino</t>
+  </si>
+  <si>
+    <t>Arduino Doc</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,10 +538,18 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="4">
+        <v>44600</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi.borriello2\Desktop\Tirocinio\Tiny-MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4E7B18-39D1-4EC1-B645-40D262B0F107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC06288D-D2DA-4F82-88F1-56738BBC999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4369CB72-3CB2-48AE-831B-B67D7B2D2361}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4369CB72-3CB2-48AE-831B-B67D7B2D2361}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -64,13 +64,19 @@
   </si>
   <si>
     <t>Arduino Doc</t>
+  </si>
+  <si>
+    <t>Studio ML e esercitazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youtube </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +92,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,11 +117,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -120,13 +145,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -157,13 +194,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{46220553-AC31-43EC-A4E9-DA82EE6C8576}" name="Tabella2" displayName="Tabella2" ref="B2:E19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{46220553-AC31-43EC-A4E9-DA82EE6C8576}" name="Tabella2" displayName="Tabella2" ref="B2:E20" totalsRowCount="1" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:E19" xr:uid="{46220553-AC31-43EC-A4E9-DA82EE6C8576}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1B096FAB-3866-401A-9AF0-3E9E6BC91087}" name="Data" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{DAB87FCA-D670-4C72-AB2E-3B17BA037396}" name="Ore" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{789F7B6F-7B08-42E9-8AE2-354812F8EF32}" name="Task" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{25867127-5B90-4E64-876B-E1FF828811C7}" name="Fonti utilizzate" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1B096FAB-3866-401A-9AF0-3E9E6BC91087}" name="Data" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DAB87FCA-D670-4C72-AB2E-3B17BA037396}" name="Ore" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{789F7B6F-7B08-42E9-8AE2-354812F8EF32}" name="Task" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{25867127-5B90-4E64-876B-E1FF828811C7}" name="Fonti utilizzate" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1F251-2E00-4C93-80E5-7B7C0B1560BE}">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,6 +517,12 @@
     <col min="5" max="5" width="46.26953125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="6">
+        <f>C3+C4+C5+C6+C7+C8+C9+C11+C10+C12+C13+C14+C15+C16+C18+C17+C19</f>
+        <v>22</v>
+      </c>
+    </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -553,10 +596,18 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="4">
+        <v>44601</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
@@ -630,6 +681,11 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi.borriello2\Desktop\Tirocinio\Tiny-MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC06288D-D2DA-4F82-88F1-56738BBC999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6618C5-5E52-49C1-A4EE-EA0669B70355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4369CB72-3CB2-48AE-831B-B67D7B2D2361}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube </t>
+  </si>
+  <si>
+    <t>Studio Jupyter e dispense prof</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -148,6 +151,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -163,13 +169,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -198,9 +204,9 @@
   <autoFilter ref="B2:E19" xr:uid="{46220553-AC31-43EC-A4E9-DA82EE6C8576}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1B096FAB-3866-401A-9AF0-3E9E6BC91087}" name="Data" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{DAB87FCA-D670-4C72-AB2E-3B17BA037396}" name="Ore" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{789F7B6F-7B08-42E9-8AE2-354812F8EF32}" name="Task" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{25867127-5B90-4E64-876B-E1FF828811C7}" name="Fonti utilizzate" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{DAB87FCA-D670-4C72-AB2E-3B17BA037396}" name="Ore" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{789F7B6F-7B08-42E9-8AE2-354812F8EF32}" name="Task" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{25867127-5B90-4E64-876B-E1FF828811C7}" name="Fonti utilizzate" dataDxfId="3" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -506,7 +512,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,7 +526,7 @@
     <row r="1" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C1" s="6">
         <f>C3+C4+C5+C6+C7+C8+C9+C11+C10+C12+C13+C14+C15+C16+C18+C17+C19</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
@@ -610,16 +616,22 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="4">
+        <v>44602</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi.borriello2\Desktop\Tirocinio\Tiny-MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6618C5-5E52-49C1-A4EE-EA0669B70355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A7D8C2-EC93-4629-82FF-674AEF2EEC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4369CB72-3CB2-48AE-831B-B67D7B2D2361}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Data</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Studio Jupyter e dispense prof</t>
+  </si>
+  <si>
+    <t>Studio modelli alternativi</t>
+  </si>
+  <si>
+    <t>Implementazione algo altern</t>
+  </si>
+  <si>
+    <t>Sklearn doc</t>
   </si>
 </sst>
 </file>
@@ -512,7 +521,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,7 +535,7 @@
     <row r="1" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C1" s="6">
         <f>C3+C4+C5+C6+C7+C8+C9+C11+C10+C12+C13+C14+C15+C16+C18+C17+C19</f>
-        <v>26</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
@@ -629,16 +638,32 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="4">
+        <v>44603</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="4">
+        <v>44604</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
